--- a/templates/轉出銷倉單格式範例.xlsx
+++ b/templates/轉出銷倉單格式範例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20180529_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -222,7 +222,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>東方航空貨運承攬有限公司</t>
+    <t>立捷航空貨運承攬有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
